--- a/Python/Simplex_.xlsx
+++ b/Python/Simplex_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
   <si>
     <t>it</t>
   </si>
@@ -23,6 +23,27 @@
   </si>
   <si>
     <t>x</t>
+  </si>
+  <si>
+    <t>[4, 5, 6]</t>
+  </si>
+  <si>
+    <t>[0, 5, 6]</t>
+  </si>
+  <si>
+    <t>[0, 1, 6]</t>
+  </si>
+  <si>
+    <t>[2, 1, 6]</t>
+  </si>
+  <si>
+    <t>[2, 3, 6]</t>
+  </si>
+  <si>
+    <t>[4, 3, 6]</t>
+  </si>
+  <si>
+    <t>[4, 0, 6]</t>
   </si>
   <si>
     <t>[4, 0, 2]</t>
@@ -414,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -422,10 +443,10 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -433,10 +454,10 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -444,10 +465,10 @@
         <v>4</v>
       </c>
       <c r="B5" t="s">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -455,10 +476,10 @@
         <v>5</v>
       </c>
       <c r="B6" t="s">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -466,10 +487,10 @@
         <v>6</v>
       </c>
       <c r="B7" t="s">
-        <v>3</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="8" spans="1:3">
@@ -477,10 +498,10 @@
         <v>7</v>
       </c>
       <c r="B8" t="s">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>4</v>
+        <v>11</v>
       </c>
     </row>
     <row r="9" spans="1:3">
@@ -488,10 +509,10 @@
         <v>8</v>
       </c>
       <c r="B9" t="s">
-        <v>3</v>
+        <v>10</v>
       </c>
       <c r="C9" t="s">
-        <v>5</v>
+        <v>12</v>
       </c>
     </row>
   </sheetData>

--- a/Python/Simplex_.xlsx
+++ b/Python/Simplex_.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="17" uniqueCount="13">
   <si>
     <t>it</t>
   </si>
@@ -40,19 +40,19 @@
     <t>[2, 3, 6]</t>
   </si>
   <si>
-    <t>[4, 3, 6]</t>
-  </si>
-  <si>
-    <t>[4, 0, 6]</t>
-  </si>
-  <si>
-    <t>[4, 0, 2]</t>
+    <t>[2, 3, 0]</t>
+  </si>
+  <si>
+    <t>[2, 4, 0]</t>
   </si>
   <si>
     <t>[0. 0. 0. 0. 0. 0. 1.]</t>
   </si>
   <si>
-    <t>[1. 0. 1. 0. 2. 0. 0.]</t>
+    <t>[0.016 0.    1.    0.004 0.    0.    0.   ]</t>
+  </si>
+  <si>
+    <t>[0.04 0.   1.   0.   0.03 0.   0.  ]</t>
   </si>
 </sst>
 </file>
@@ -410,7 +410,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C9"/>
+  <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -435,7 +435,7 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="3" spans="1:3">
@@ -446,7 +446,7 @@
         <v>4</v>
       </c>
       <c r="C3" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="4" spans="1:3">
@@ -457,7 +457,7 @@
         <v>5</v>
       </c>
       <c r="C4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:3">
@@ -468,7 +468,7 @@
         <v>6</v>
       </c>
       <c r="C5" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="6" spans="1:3">
@@ -479,7 +479,7 @@
         <v>7</v>
       </c>
       <c r="C6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
     </row>
     <row r="7" spans="1:3">
@@ -501,17 +501,6 @@
         <v>9</v>
       </c>
       <c r="C8" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9">
-        <v>8</v>
-      </c>
-      <c r="B9" t="s">
-        <v>10</v>
-      </c>
-      <c r="C9" t="s">
         <v>12</v>
       </c>
     </row>
